--- a/reports/experiments.xlsx
+++ b/reports/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\vpp-cfla\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B622C5D7-4728-4139-A357-0F1C58D1DC1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F22E534-DD08-46C2-A492-996D26A837B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -97,12 +97,15 @@
   <si>
     <t>mainītas uzvednes un jautājumi</t>
   </si>
+  <si>
+    <t>chunk_size = 1536, MammothMarkdownify,Markerpdf, JSON rezultāts</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +129,13 @@
       <charset val="186"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="186"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -147,12 +157,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -434,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,6 +802,26 @@
         <v>18</v>
       </c>
     </row>
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.52682926829268295</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/reports/experiments.xlsx
+++ b/reports/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\vpp-cfla\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F22E534-DD08-46C2-A492-996D26A837B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF700640-0871-4135-BA37-407573CD0D4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>chunk_size = 1536, MammothMarkdownify,Markerpdf, JSON rezultāts</t>
+  </si>
+  <si>
+    <t>Viss fails tiek padots LLMam</t>
+  </si>
+  <si>
+    <t>reranker</t>
   </si>
 </sst>
 </file>
@@ -447,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,6 +828,126 @@
         <v>0.52682926829268295</v>
       </c>
     </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>15.05</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.585365853658536</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>15.05</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.56585365853658498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>15.05</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.551219512195122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>15.05</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.55609756097560903</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>15.05</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.46341463414634099</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>15.05</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.45853658536585301</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/reports/experiments.xlsx
+++ b/reports/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\vpp-cfla\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF700640-0871-4135-BA37-407573CD0D4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB171D1-84AC-42FE-8A61-81D336CACD24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -104,14 +104,94 @@
     <t>Viss fails tiek padots LLMam</t>
   </si>
   <si>
-    <t>reranker</t>
+    <t>reranker, chunk_size = 1536, MammothMarkdownify, JSON rezultāts</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Nav info par iepirkuma plānu, lai atbildētu. 
+5. Izvelk kodus, EIS url, saka jā, kaut gan vēl jāpārbauda EISā.
+6-0. piegādes līgums, un tekstā ir, ka arī apmācība paredzēta. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="186"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Referencē n/a, satur tikai piegādes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+7. Tikai viss dokuments un reranker atbild pareizi.
+8. viss dokuments saja jā, kaut gan no teksta nevar pārbaudīt 'vienlaicīgi ar procedūras izsludināšanas dienu'
+10. viss dokuments saka nē, kaut gan tekstā ir par dokumentiem EIS un par nolikumu klātienē, bet nav nekas par papildu dokumentiem klātienē. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="186"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reference saka jā</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+16. Vajag papildjautājumu par pasūtītāja kvalificēšanos papildizņēmumiem tikai tad, ja neparedz elektroniskus pieteikumus EIS (citādi uzreiz atbildēt jā). Viss dokuments atbild nē.
+18. Reranker apšauba, ka ja nemin, ka par maksu, tad tas nozīmē, ka ir bez maksas.
+19. Reranker nav fragmentu par atbildes sniegšanas termiņiem.
+23-0. No nolikuma nevar zināt,  vai </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="186"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>netiek paredzēta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ieinteresēto piegādātāju sanāksme
+25. Ir izgūts nolikuma numurs. Pareizi saka, ka "nav informācijas par to, vai šis numurs ir tāds pats kā publikācijā IUB".
+29. TIkai viss dokuments konstatē, ka piedāvājumā ir piedāvājumu iesniegšanas termiņš. To vajag izgūt. Papildu darība - salīdzināt ar paziņojumu par līgumu</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +222,14 @@
       <family val="3"/>
       <charset val="186"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="186"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -151,7 +239,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -159,11 +247,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -172,6 +340,42 @@
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,14 +659,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="36.5703125" customWidth="1"/>
     <col min="5" max="5" width="42.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="97.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -804,7 +1009,7 @@
       <c r="F17" s="1">
         <v>0.50731707317073105</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -868,7 +1073,7 @@
         <v>0.56585365853658498</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>15.05</v>
       </c>
@@ -888,67 +1093,75 @@
         <v>0.551219512195122</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
         <v>15.05</v>
       </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="B22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="9">
         <v>0.55609756097560903</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="G22" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
         <v>15.05</v>
       </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="B23" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="13">
         <v>0.46341463414634099</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="1:7" ht="120.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14">
         <v>15.05</v>
       </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="B24" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="17">
         <v>0.45853658536585301</v>
       </c>
+      <c r="G24" s="20"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G22:G24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/reports/experiments.xlsx
+++ b/reports/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\vpp-cfla\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB171D1-84AC-42FE-8A61-81D336CACD24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D03508-93AF-48AF-A6DB-344EBF75A71F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>Viss fails tiek padots LLMam</t>
-  </si>
-  <si>
-    <t>reranker, chunk_size = 1536, MammothMarkdownify, JSON rezultāts</t>
   </si>
   <si>
     <r>
@@ -185,6 +182,24 @@
 25. Ir izgūts nolikuma numurs. Pareizi saka, ka "nav informācijas par to, vai šis numurs ir tāds pats kā publikācijā IUB".
 29. TIkai viss dokuments konstatē, ka piedāvājumā ir piedāvājumu iesniegšanas termiņš. To vajag izgūt. Papildu darība - salīdzināt ar paziņojumu par līgumu</t>
     </r>
+  </si>
+  <si>
+    <t>5 top similar, prevchunk,similar chunk, nextchunk,chunk_size = 1536, MammothMarkdownify, JSON rezultāts</t>
+  </si>
+  <si>
+    <t>5 top similar, chunk_size = 1536, MammothMarkdownify, JSON rezultāts</t>
+  </si>
+  <si>
+    <t>20 reranker, 5 top similar,  chunk_size = 1536, MammothMarkdownify, JSON rezultāts</t>
+  </si>
+  <si>
+    <t>3 top similar, prevchunk,similar chunk, nextchunk,chunk_size = 1536, MammothMarkdownify, JSON rezultāts</t>
+  </si>
+  <si>
+    <t>4 top similar, prevchunk,similar chunk, nextchunk,chunk_size = 1536, MammothMarkdownify, JSON rezultāts</t>
+  </si>
+  <si>
+    <t>20 reranker, 5 top similar, prevchunk,similar chunk, nextchunk,chunk_size = 1536, MammothMarkdownify, JSON rezultāts</t>
   </si>
 </sst>
 </file>
@@ -331,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -368,6 +383,7 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -657,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,8 +1128,8 @@
       <c r="F22" s="9">
         <v>0.55609756097560903</v>
       </c>
-      <c r="G22" s="18" t="s">
-        <v>22</v>
+      <c r="G22" s="19" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1130,12 +1146,12 @@
         <v>6</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F23" s="13">
         <v>0.46341463414634099</v>
       </c>
-      <c r="G23" s="19"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="120.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
@@ -1151,12 +1167,92 @@
         <v>6</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F24" s="17">
         <v>0.45853658536585301</v>
       </c>
-      <c r="G24" s="20"/>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
+        <v>27.05</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.54146341463414605</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="18">
+        <v>27.05</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.517073170731707</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="18">
+        <v>27.05</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.482926829268292</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="18">
+        <v>27.05</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.56097560975609695</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
